--- a/template/order.xlsx
+++ b/template/order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/kwy/backend/management/src/main/resources/stastic/formDemo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/IdeaProject/kwy_management_backend/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB377AA1-089C-CA47-88B1-40A2A089C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE134C-4293-2C4A-9FD1-30E0D66113B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="11900" windowWidth="12340" windowHeight="13840" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>河南康味源食品科技有限公司</t>
-  </si>
-  <si>
     <t>产品名称</t>
   </si>
   <si>
@@ -130,6 +127,10 @@
   </si>
   <si>
     <t>{.productName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx食品科技有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -428,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,7 +728,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -741,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="24">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -752,7 +753,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -763,7 +764,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -774,12 +775,12 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -787,12 +788,12 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -800,48 +801,48 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
@@ -855,7 +856,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -866,7 +867,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -877,7 +878,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -885,12 +886,12 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
